--- a/InterfaceBlog_Backend API 정의서.xlsx
+++ b/InterfaceBlog_Backend API 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김선우\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김선우\OneDrive\문서\GitHub\InterFaceDEBlog-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F50E3B-7528-4BC1-8650-234824BA4D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17368737-EE69-4E98-BD8E-690BE56B447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E252D1E6-6595-4373-A0C5-4DCD0F1B0DCC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/posts/about</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -216,6 +208,42 @@
     acknowledged : &lt;삭제 여부의 boolean값&gt;,
     deleteCount : &lt;삭제된 데이터의 개수&gt;
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/about/comments/upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자와 내용을 받아서 데이터베이스에 Comment를 추가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    body :"&lt;해당 Comment의 본문&gt;",
+    writername : "&lt;해당 Comment의 작성자&gt;"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  _id: new ObjectId("&lt;_id&gt;"),
+  date: &lt;작성 날짜&gt;,
+  body: &lt;본문&gt;',
+  writername: '&lt;작성자&gt;',
+  dataType: 'comment',
+  createdAt: &lt;작성 시간&gt;,
+  updatedAt: &lt;작성 시간&gt;,
+  __v: 0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/about/comments/clear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 Comment를 삭제합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +345,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA6B898-6428-4597-B3E6-D8E50D6855E8}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -662,10 +696,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="217.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -679,16 +713,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="256.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -698,20 +732,22 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="256.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="225.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -720,13 +756,11 @@
         <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="225.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -737,50 +771,54 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="174" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -788,16 +826,36 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceBlog_Backend API 정의서.xlsx
+++ b/InterfaceBlog_Backend API 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김선우\OneDrive\문서\GitHub\InterFaceDEBlog-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17368737-EE69-4E98-BD8E-690BE56B447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE9B0E-E5CD-4A87-911F-8CED8F10777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E252D1E6-6595-4373-A0C5-4DCD0F1B0DCC}"/>
   </bookViews>
@@ -110,10 +110,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>키와 벨류를 받아 해당하는 모든 정보를 불러옵니다.
+작성 시간, 생성 시간, 업데이트 시간에 대해서 검색은 지원하지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당하는 문서의 _id값과 수정하고 싶은 데이터를 JSON형식으로 받아 수정합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당하는 문서의 _id값을 받아 해당 데이터를 삭제합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    _id: &lt;해당 데이터의 _id&gt;
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    _id: &lt;해당 데이터의 _id&gt;,
+    mod:{
+        &lt;바꾸고 싶은 항목의 key&gt; : &lt;바꾸고 싶은 항목의 value&gt;,
+        &lt;바꾸고 싶은 항목의 key&gt; : &lt;바꾸고 싶은 항목의 value&gt;,
+        .
+        .
+        .
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스를 초기화합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 100개의 더미 데이터를 추가합니다.
+더미 데이터의태그는 dummy입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    acknowledged : &lt;삭제 여부의 boolean값&gt;,
+    deleteCount : &lt;삭제된 데이터의 개수&gt;
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/about/comments/upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자와 내용을 받아서 데이터베이스에 Comment를 추가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    body :"&lt;해당 Comment의 본문&gt;",
+    writername : "&lt;해당 Comment의 작성자&gt;"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  _id: new ObjectId("&lt;_id&gt;"),
+  date: &lt;작성 날짜&gt;,
+  body: &lt;본문&gt;',
+  writername: '&lt;작성자&gt;',
+  dataType: 'comment',
+  createdAt: &lt;작성 시간&gt;,
+  updatedAt: &lt;작성 시간&gt;,
+  __v: 0
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/about/comments/clear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 Comment를 삭제합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     title : "&lt;문서 제목&gt;",
     blogBody : "&lt;문서 본문&gt;",
-    teg : "&lt;문서 태그&gt;",
+    tag : "&lt;문서 태그&gt;",
     imageUrl : "&lt;이미지 URL&gt;",
     writername : "&lt;작성자 이름&gt;"
  }</t>
@@ -131,19 +219,15 @@
   createdAt: &lt;생성 시간&gt;
   updatedAt: &lt;업데이트 시간&gt;,
   __v: 0
+  index:&lt;데이터 개수&gt;
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
-    "key": "&lt;검색할 키값&gt;"
+    "title": "&lt;검색할 키값&gt;"
     "value": "&lt;검색할 내용&gt;"
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키와 벨류를 받아 해당하는 모든 정보를 불러옵니다.
-작성 시간, 생성 시간, 업데이트 시간에 대해서 검색은 지원하지 않습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -159,91 +243,9 @@
   createdAt: &lt;생성 시간&gt;
   updatedAt: &lt;업데이트 시간&gt;,
   __v: 0
+  index:&lt;데이터 개수&gt;
 }
 ] </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당하는 문서의 _id값과 수정하고 싶은 데이터를 JSON형식으로 받아 수정합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당하는 문서의 _id값을 받아 해당 데이터를 삭제합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    _id: &lt;해당 데이터의 _id&gt;
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    _id: &lt;해당 데이터의 _id&gt;,
-    mod:{
-        &lt;바꾸고 싶은 항목의 key&gt; : &lt;바꾸고 싶은 항목의 value&gt;,
-        &lt;바꾸고 싶은 항목의 key&gt; : &lt;바꾸고 싶은 항목의 value&gt;,
-        .
-        .
-        .
-    }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스를 초기화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 100개의 더미 데이터를 추가합니다.
-더미 데이터의태그는 dummy입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    acknowledged : &lt;삭제 여부의 boolean값&gt;,
-    deleteCount : &lt;삭제된 데이터의 개수&gt;
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/about/comments/upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자와 내용을 받아서 데이터베이스에 Comment를 추가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    body :"&lt;해당 Comment의 본문&gt;",
-    writername : "&lt;해당 Comment의 작성자&gt;"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  _id: new ObjectId("&lt;_id&gt;"),
-  date: &lt;작성 날짜&gt;,
-  body: &lt;본문&gt;',
-  writername: '&lt;작성자&gt;',
-  dataType: 'comment',
-  createdAt: &lt;작성 시간&gt;,
-  updatedAt: &lt;작성 시간&gt;,
-  __v: 0
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/about/comments/clear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 Comment를 삭제합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,9 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA6B898-6428-4597-B3E6-D8E50D6855E8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -702,7 +701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="217.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="238.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -716,13 +715,13 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="256.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="271.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -733,13 +732,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="225.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -753,10 +752,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -771,10 +770,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -789,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.4">
@@ -809,13 +808,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="174" x14ac:dyDescent="0.4">
@@ -826,36 +825,36 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceBlog_Backend API 정의서.xlsx
+++ b/InterfaceBlog_Backend API 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김선우\OneDrive\문서\GitHub\InterFaceDEBlog-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE9B0E-E5CD-4A87-911F-8CED8F10777C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0638361-CA9E-4590-9D53-E8F18A1BCFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E252D1E6-6595-4373-A0C5-4DCD0F1B0DCC}"/>
   </bookViews>
@@ -199,32 +199,6 @@
   </si>
   <si>
     <t>{
-    title : "&lt;문서 제목&gt;",
-    blogBody : "&lt;문서 본문&gt;",
-    tag : "&lt;문서 태그&gt;",
-    imageUrl : "&lt;이미지 URL&gt;",
-    writername : "&lt;작성자 이름&gt;"
- }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  blogBody: '&lt;문서 본문&gt;',
-  tag: '&lt;문서 태그&gt;',
-  imageUrl: '&lt;이미지 URL&gt;',
-  _id: new ObjectId("&lt;문서 _id&gt;"),
-  writedate: &lt;작성 시간&gt;
-  title: '&lt;문서 제목&gt;',
-  writername: '&lt;작성자 이름&gt;',
-  createdAt: &lt;생성 시간&gt;
-  updatedAt: &lt;업데이트 시간&gt;,
-  __v: 0
-  index:&lt;데이터 개수&gt;
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "title": "&lt;검색할 키값&gt;"
     "value": "&lt;검색할 내용&gt;"
 }</t>
@@ -246,6 +220,32 @@
   index:&lt;데이터 개수&gt;
 }
 ] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    title : "&lt;문서 제목&gt;",
+    blogBody : "&lt;문서 본문&gt;",
+    tag : ["&lt;문서 태그&gt;","&lt;문서 태그2&gt;..] 
+    imageUrl : "&lt;이미지 URL&gt;",
+    writername : "&lt;작성자 이름&gt;"
+ }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  blogBody: '&lt;문서 본문&gt;',
+  tag: ['&lt;문서 태그&gt;…]',
+  imageUrl: '&lt;이미지 URL&gt;',
+  _id: new ObjectId("&lt;문서 _id&gt;"),
+  writedate: &lt;작성 시간&gt;
+  title: '&lt;문서 제목&gt;',
+  writername: '&lt;작성자 이름&gt;',
+  createdAt: &lt;생성 시간&gt;
+  updatedAt: &lt;업데이트 시간&gt;,
+  __v: 0
+  index:&lt;데이터 개수&gt;
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA6B898-6428-4597-B3E6-D8E50D6855E8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="271.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -735,10 +735,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="225.6" customHeight="1" x14ac:dyDescent="0.4">
